--- a/xlsx/加利福尼亚州州徽_intext.xlsx
+++ b/xlsx/加利福尼亚州州徽_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>希臘神話</t>
+    <t>希腊神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E5%9C%92</t>
   </si>
   <si>
-    <t>葡萄園</t>
+    <t>葡萄园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E9%85%92</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A4%A6</t>
   </si>
   <si>
-    <t>金礦</t>
+    <t>金矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%E5%8D%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
